--- a/data/annotation/product_mj.xlsx
+++ b/data/annotation/product_mj.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sutdapac-my.sharepoint.com/personal/maojia_song_mymail_sutd_edu_sg/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiayewken/Downloads/Projects/Work/MultimodalFinance/data/annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="13_ncr:1_{227026FE-AE7E-4536-B65A-8048B6153725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C347CCE2-6DBF-4130-AD46-93C51A4EE18D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35014FDD-8F8F-D643-B0B3-2FB2BF725A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10180" yWindow="0" windowWidth="15510" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="726">
   <si>
     <t>data_file</t>
   </si>
@@ -2241,24 +2251,15 @@
     <t>yes</t>
   </si>
   <si>
-    <t>Does the content contain any {category}?</t>
-  </si>
-  <si>
-    <t>Does the question require information from the {category}?</t>
-  </si>
-  <si>
-    <t>Is the question clear and answerable based on the {category}?</t>
-  </si>
-  <si>
-    <t>Is the question of reasonable difficulty and answer cannot be simply copied?</t>
-  </si>
-  <si>
     <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>yes</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid</t>
   </si>
 </sst>
 </file>
@@ -2269,7 +2270,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2277,10 +2278,11 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2294,7 +2296,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2317,18 +2319,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2628,27 +2644,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I356"/>
+  <dimension ref="A1:J355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A179" sqref="A179"/>
-      <selection pane="bottomLeft" activeCell="G251" sqref="G251"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" customWidth="1"/>
-    <col min="2" max="2" width="5.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1"/>
-    <col min="4" max="5" width="4.54296875" customWidth="1"/>
-    <col min="6" max="6" width="36.54296875" customWidth="1"/>
-    <col min="7" max="7" width="51.81640625" customWidth="1"/>
-    <col min="8" max="8" width="53.26953125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
+    <col min="4" max="5" width="4.5" customWidth="1"/>
+    <col min="6" max="6" width="36.5" customWidth="1"/>
+    <col min="7" max="7" width="51.83203125" customWidth="1"/>
+    <col min="8" max="8" width="53.33203125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2676,8 +2690,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2694,7 +2711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2711,7 +2728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2728,7 +2745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2745,7 +2762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2762,7 +2779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2779,7 +2796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2796,7 +2813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2813,7 +2830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2830,7 +2847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2847,7 +2864,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2864,7 +2881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2881,7 +2898,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2898,7 +2915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2915,7 +2932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2932,7 +2949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2949,7 +2966,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2966,7 +2983,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2983,7 +3000,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -3000,7 +3017,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -3017,7 +3034,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -3034,7 +3051,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -3051,7 +3068,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -3068,7 +3085,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -3085,7 +3102,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -3102,7 +3119,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -3119,7 +3136,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -3136,7 +3153,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -3153,7 +3170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3170,7 +3187,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -3187,7 +3204,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -3204,7 +3221,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -3221,7 +3238,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3238,7 +3255,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -3255,7 +3272,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -3272,7 +3289,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -3289,7 +3306,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -3306,7 +3323,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -3323,7 +3340,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -3340,7 +3357,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -3357,7 +3374,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -3374,7 +3391,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -3391,7 +3408,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -3408,7 +3425,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -3425,7 +3442,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -3442,7 +3459,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -3459,7 +3476,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -3476,7 +3493,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -3493,7 +3510,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -3510,7 +3527,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -3527,7 +3544,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -3544,7 +3561,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -3561,7 +3578,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -3578,7 +3595,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -3595,7 +3612,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -3612,7 +3629,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -3629,7 +3646,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -3646,7 +3663,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -3663,7 +3680,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -3680,7 +3697,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -3697,7 +3714,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -3714,7 +3731,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -3731,7 +3748,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -3748,7 +3765,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -3765,7 +3782,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -3782,7 +3799,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -3799,7 +3816,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -3816,7 +3833,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -3833,7 +3850,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -3850,7 +3867,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -3867,7 +3884,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -3884,7 +3901,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3901,7 +3918,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -3918,7 +3935,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -3935,7 +3952,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3952,7 +3969,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -3969,7 +3986,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -3986,7 +4003,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -4003,7 +4020,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -4020,7 +4037,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -4037,7 +4054,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -4054,7 +4071,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -4071,7 +4088,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -4088,7 +4105,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -4105,7 +4122,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -4122,7 +4139,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -4139,7 +4156,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -4156,7 +4173,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -4173,7 +4190,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -4190,7 +4207,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -4207,7 +4224,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -4224,7 +4241,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -4241,7 +4258,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -4258,7 +4275,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -4275,7 +4292,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -4292,7 +4309,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -4309,7 +4326,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -4326,7 +4343,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -4343,7 +4360,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -4360,7 +4377,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -4377,7 +4394,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -4394,7 +4411,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -4411,7 +4428,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -4428,7 +4445,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -4445,7 +4462,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -4462,7 +4479,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -4479,7 +4496,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -4496,7 +4513,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -4513,7 +4530,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -4530,7 +4547,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -4547,7 +4564,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -4564,7 +4581,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -4581,7 +4598,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -4598,7 +4615,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -4615,7 +4632,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -4632,7 +4649,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -4649,7 +4666,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -4666,7 +4683,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -4683,7 +4700,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -4700,7 +4717,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -4717,7 +4734,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -4734,7 +4751,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -4751,7 +4768,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -4768,7 +4785,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -4785,7 +4802,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -4802,7 +4819,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -4819,7 +4836,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -4836,7 +4853,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -4853,7 +4870,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -4870,7 +4887,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -4887,7 +4904,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -4904,7 +4921,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -4921,7 +4938,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -4938,7 +4955,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -4955,7 +4972,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -4972,7 +4989,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4989,7 +5006,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -5006,7 +5023,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -5023,7 +5040,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -5040,7 +5057,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -5057,7 +5074,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -5074,7 +5091,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -5091,7 +5108,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -5108,7 +5125,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -5125,7 +5142,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -5142,7 +5159,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -5159,7 +5176,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -5176,7 +5193,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -5193,7 +5210,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -5210,7 +5227,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -5227,7 +5244,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -5244,7 +5261,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -5261,7 +5278,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -5278,7 +5295,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -5295,7 +5312,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -5312,7 +5329,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -5329,7 +5346,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -5346,7 +5363,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -5363,7 +5380,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -5380,7 +5397,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>9</v>
       </c>
@@ -5397,7 +5414,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -5414,7 +5431,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -5431,7 +5448,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -5448,7 +5465,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -5465,7 +5482,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -5482,7 +5499,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -5499,7 +5516,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>9</v>
       </c>
@@ -5516,7 +5533,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -5533,7 +5550,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>9</v>
       </c>
@@ -5550,7 +5567,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -5567,7 +5584,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -5584,7 +5601,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -5601,7 +5618,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>9</v>
       </c>
@@ -5618,7 +5635,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -5635,7 +5652,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -5652,7 +5669,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -5669,7 +5686,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -5686,7 +5703,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -5703,7 +5720,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>9</v>
       </c>
@@ -5720,7 +5737,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -5737,195 +5754,238 @@
         <v>373</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s">
+        <v>374</v>
+      </c>
+      <c r="E182" t="s">
+        <v>375</v>
+      </c>
       <c r="F182" t="s">
+        <v>722</v>
+      </c>
+      <c r="G182" t="s">
+        <v>722</v>
+      </c>
+      <c r="H182" t="s">
+        <v>722</v>
+      </c>
+      <c r="I182" t="s">
+        <v>722</v>
+      </c>
+      <c r="J182">
+        <f>INT(AND(F182="yes", G182="yes", H182="yes", I182="yes"))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s">
+        <v>376</v>
+      </c>
+      <c r="E183" t="s">
+        <v>377</v>
+      </c>
+      <c r="F183" t="s">
+        <v>722</v>
+      </c>
+      <c r="G183" t="s">
+        <v>722</v>
+      </c>
+      <c r="H183" t="s">
+        <v>722</v>
+      </c>
+      <c r="I183" t="s">
+        <v>722</v>
+      </c>
+      <c r="J183">
+        <f t="shared" ref="J183:J246" si="0">INT(AND(F183="yes", G183="yes", H183="yes", I183="yes"))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" t="s">
+        <v>378</v>
+      </c>
+      <c r="E184" t="s">
+        <v>379</v>
+      </c>
+      <c r="F184" t="s">
+        <v>722</v>
+      </c>
+      <c r="G184" t="s">
+        <v>722</v>
+      </c>
+      <c r="H184" t="s">
+        <v>722</v>
+      </c>
+      <c r="I184" t="s">
+        <v>722</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" t="s">
+        <v>380</v>
+      </c>
+      <c r="E185" t="s">
+        <v>381</v>
+      </c>
+      <c r="F185" t="s">
+        <v>722</v>
+      </c>
+      <c r="G185" t="s">
+        <v>722</v>
+      </c>
+      <c r="H185" t="s">
+        <v>722</v>
+      </c>
+      <c r="I185" t="s">
+        <v>722</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" t="s">
+        <v>21</v>
+      </c>
+      <c r="D186" t="s">
+        <v>382</v>
+      </c>
+      <c r="E186" t="s">
+        <v>383</v>
+      </c>
+      <c r="F186" t="s">
+        <v>722</v>
+      </c>
+      <c r="G186" t="s">
+        <v>722</v>
+      </c>
+      <c r="H186" t="s">
+        <v>722</v>
+      </c>
+      <c r="I186" t="s">
+        <v>722</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" t="s">
+        <v>384</v>
+      </c>
+      <c r="E187" t="s">
+        <v>385</v>
+      </c>
+      <c r="F187" t="s">
+        <v>722</v>
+      </c>
+      <c r="G187" t="s">
+        <v>722</v>
+      </c>
+      <c r="H187" t="s">
+        <v>722</v>
+      </c>
+      <c r="I187" t="s">
         <v>723</v>
       </c>
-      <c r="G182" t="s">
+      <c r="J187">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s">
+        <v>386</v>
+      </c>
+      <c r="E188" t="s">
+        <v>387</v>
+      </c>
+      <c r="F188" t="s">
         <v>724</v>
       </c>
-      <c r="H182" t="s">
-        <v>725</v>
-      </c>
-      <c r="I182" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>9</v>
-      </c>
-      <c r="B183" t="s">
-        <v>10</v>
-      </c>
-      <c r="C183" t="s">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s">
-        <v>374</v>
-      </c>
-      <c r="E183" t="s">
-        <v>375</v>
-      </c>
-      <c r="F183" t="s">
-        <v>722</v>
-      </c>
-      <c r="G183" t="s">
-        <v>722</v>
-      </c>
-      <c r="H183" t="s">
-        <v>722</v>
-      </c>
-      <c r="I183" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>9</v>
-      </c>
-      <c r="B184" t="s">
-        <v>10</v>
-      </c>
-      <c r="C184" t="s">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s">
-        <v>376</v>
-      </c>
-      <c r="E184" t="s">
-        <v>377</v>
-      </c>
-      <c r="F184" t="s">
-        <v>722</v>
-      </c>
-      <c r="G184" t="s">
-        <v>722</v>
-      </c>
-      <c r="H184" t="s">
-        <v>722</v>
-      </c>
-      <c r="I184" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>9</v>
-      </c>
-      <c r="B185" t="s">
-        <v>10</v>
-      </c>
-      <c r="C185" t="s">
-        <v>16</v>
-      </c>
-      <c r="D185" t="s">
-        <v>378</v>
-      </c>
-      <c r="E185" t="s">
-        <v>379</v>
-      </c>
-      <c r="F185" t="s">
-        <v>722</v>
-      </c>
-      <c r="G185" t="s">
-        <v>722</v>
-      </c>
-      <c r="H185" t="s">
-        <v>722</v>
-      </c>
-      <c r="I185" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>9</v>
-      </c>
-      <c r="B186" t="s">
-        <v>10</v>
-      </c>
-      <c r="C186" t="s">
-        <v>16</v>
-      </c>
-      <c r="D186" t="s">
-        <v>380</v>
-      </c>
-      <c r="E186" t="s">
-        <v>381</v>
-      </c>
-      <c r="F186" t="s">
-        <v>722</v>
-      </c>
-      <c r="G186" t="s">
-        <v>722</v>
-      </c>
-      <c r="H186" t="s">
-        <v>722</v>
-      </c>
-      <c r="I186" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>9</v>
-      </c>
-      <c r="B187" t="s">
-        <v>10</v>
-      </c>
-      <c r="C187" t="s">
-        <v>21</v>
-      </c>
-      <c r="D187" t="s">
-        <v>382</v>
-      </c>
-      <c r="E187" t="s">
-        <v>383</v>
-      </c>
-      <c r="F187" t="s">
-        <v>722</v>
-      </c>
-      <c r="G187" t="s">
-        <v>722</v>
-      </c>
-      <c r="H187" t="s">
-        <v>722</v>
-      </c>
-      <c r="I187" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>9</v>
-      </c>
-      <c r="B188" t="s">
-        <v>10</v>
-      </c>
-      <c r="C188" t="s">
-        <v>21</v>
-      </c>
-      <c r="D188" t="s">
-        <v>384</v>
-      </c>
-      <c r="E188" t="s">
-        <v>385</v>
-      </c>
-      <c r="F188" t="s">
-        <v>722</v>
-      </c>
       <c r="G188" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H188" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I188" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -5936,25 +5996,29 @@
         <v>11</v>
       </c>
       <c r="D189" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E189" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F189" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G189" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H189" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="I189" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -5962,13 +6026,13 @@
         <v>10</v>
       </c>
       <c r="C190" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D190" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E190" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F190" t="s">
         <v>722</v>
@@ -5982,8 +6046,12 @@
       <c r="I190" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J190">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>9</v>
       </c>
@@ -5994,10 +6062,10 @@
         <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E191" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F191" t="s">
         <v>722</v>
@@ -6011,8 +6079,12 @@
       <c r="I191" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J191">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -6020,13 +6092,13 @@
         <v>10</v>
       </c>
       <c r="C192" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D192" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E192" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F192" t="s">
         <v>722</v>
@@ -6040,8 +6112,12 @@
       <c r="I192" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -6052,10 +6128,10 @@
         <v>21</v>
       </c>
       <c r="D193" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E193" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F193" t="s">
         <v>722</v>
@@ -6069,8 +6145,12 @@
       <c r="I193" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>9</v>
       </c>
@@ -6078,13 +6158,13 @@
         <v>10</v>
       </c>
       <c r="C194" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D194" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E194" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F194" t="s">
         <v>722</v>
@@ -6098,8 +6178,12 @@
       <c r="I194" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -6110,10 +6194,10 @@
         <v>11</v>
       </c>
       <c r="D195" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E195" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F195" t="s">
         <v>722</v>
@@ -6127,8 +6211,12 @@
       <c r="I195" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J195">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -6136,13 +6224,13 @@
         <v>10</v>
       </c>
       <c r="C196" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E196" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F196" t="s">
         <v>722</v>
@@ -6156,8 +6244,12 @@
       <c r="I196" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J196">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -6168,10 +6260,10 @@
         <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E197" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F197" t="s">
         <v>722</v>
@@ -6183,10 +6275,14 @@
         <v>722</v>
       </c>
       <c r="I197" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="J197">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -6194,13 +6290,13 @@
         <v>10</v>
       </c>
       <c r="C198" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D198" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E198" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F198" t="s">
         <v>722</v>
@@ -6212,10 +6308,14 @@
         <v>722</v>
       </c>
       <c r="I198" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -6226,10 +6326,10 @@
         <v>21</v>
       </c>
       <c r="D199" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E199" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F199" t="s">
         <v>722</v>
@@ -6241,10 +6341,14 @@
         <v>722</v>
       </c>
       <c r="I199" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>9</v>
       </c>
@@ -6252,13 +6356,13 @@
         <v>10</v>
       </c>
       <c r="C200" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D200" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E200" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F200" t="s">
         <v>722</v>
@@ -6272,8 +6376,12 @@
       <c r="I200" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J200">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -6284,10 +6392,10 @@
         <v>11</v>
       </c>
       <c r="D201" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E201" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F201" t="s">
         <v>722</v>
@@ -6301,8 +6409,12 @@
       <c r="I201" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J201">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -6310,13 +6422,13 @@
         <v>10</v>
       </c>
       <c r="C202" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E202" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F202" t="s">
         <v>722</v>
@@ -6330,8 +6442,12 @@
       <c r="I202" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J202">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -6342,10 +6458,10 @@
         <v>16</v>
       </c>
       <c r="D203" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E203" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F203" t="s">
         <v>722</v>
@@ -6359,8 +6475,12 @@
       <c r="I203" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J203">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>9</v>
       </c>
@@ -6368,13 +6488,13 @@
         <v>10</v>
       </c>
       <c r="C204" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D204" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E204" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F204" t="s">
         <v>722</v>
@@ -6383,13 +6503,17 @@
         <v>722</v>
       </c>
       <c r="H204" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I204" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J204">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>9</v>
       </c>
@@ -6400,10 +6524,10 @@
         <v>21</v>
       </c>
       <c r="D205" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E205" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F205" t="s">
         <v>722</v>
@@ -6412,13 +6536,17 @@
         <v>722</v>
       </c>
       <c r="H205" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="I205" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="J205">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -6426,13 +6554,13 @@
         <v>10</v>
       </c>
       <c r="C206" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D206" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E206" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F206" t="s">
         <v>722</v>
@@ -6441,13 +6569,17 @@
         <v>722</v>
       </c>
       <c r="H206" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I206" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>9</v>
       </c>
@@ -6458,10 +6590,10 @@
         <v>11</v>
       </c>
       <c r="D207" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E207" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F207" t="s">
         <v>722</v>
@@ -6470,13 +6602,17 @@
         <v>722</v>
       </c>
       <c r="H207" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="I207" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -6484,13 +6620,13 @@
         <v>10</v>
       </c>
       <c r="C208" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E208" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F208" t="s">
         <v>722</v>
@@ -6504,8 +6640,12 @@
       <c r="I208" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -6516,10 +6656,10 @@
         <v>16</v>
       </c>
       <c r="D209" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E209" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F209" t="s">
         <v>722</v>
@@ -6533,8 +6673,12 @@
       <c r="I209" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -6542,13 +6686,13 @@
         <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D210" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E210" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F210" t="s">
         <v>722</v>
@@ -6562,8 +6706,12 @@
       <c r="I210" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -6574,10 +6722,10 @@
         <v>21</v>
       </c>
       <c r="D211" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E211" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F211" t="s">
         <v>722</v>
@@ -6591,8 +6739,12 @@
       <c r="I211" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>9</v>
       </c>
@@ -6600,13 +6752,13 @@
         <v>10</v>
       </c>
       <c r="C212" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D212" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E212" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F212" t="s">
         <v>722</v>
@@ -6620,8 +6772,12 @@
       <c r="I212" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>9</v>
       </c>
@@ -6632,25 +6788,29 @@
         <v>11</v>
       </c>
       <c r="D213" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E213" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F213" t="s">
         <v>722</v>
       </c>
       <c r="G213" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H213" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I213" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>9</v>
       </c>
@@ -6658,28 +6818,32 @@
         <v>10</v>
       </c>
       <c r="C214" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D214" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E214" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F214" t="s">
         <v>722</v>
       </c>
       <c r="G214" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H214" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="I214" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>9</v>
       </c>
@@ -6690,10 +6854,10 @@
         <v>16</v>
       </c>
       <c r="D215" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E215" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F215" t="s">
         <v>722</v>
@@ -6707,8 +6871,12 @@
       <c r="I215" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>9</v>
       </c>
@@ -6716,13 +6884,13 @@
         <v>10</v>
       </c>
       <c r="C216" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D216" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E216" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F216" t="s">
         <v>722</v>
@@ -6736,8 +6904,12 @@
       <c r="I216" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -6748,10 +6920,10 @@
         <v>21</v>
       </c>
       <c r="D217" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E217" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F217" t="s">
         <v>722</v>
@@ -6763,10 +6935,14 @@
         <v>722</v>
       </c>
       <c r="I217" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="J217">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -6774,13 +6950,13 @@
         <v>10</v>
       </c>
       <c r="C218" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D218" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E218" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F218" t="s">
         <v>722</v>
@@ -6792,10 +6968,14 @@
         <v>722</v>
       </c>
       <c r="I218" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="J218">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>9</v>
       </c>
@@ -6806,25 +6986,29 @@
         <v>11</v>
       </c>
       <c r="D219" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E219" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F219" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G219" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H219" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I219" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="J219">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>9</v>
       </c>
@@ -6832,28 +7016,32 @@
         <v>10</v>
       </c>
       <c r="C220" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D220" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E220" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F220" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="G220" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H220" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="I220" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="J220">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -6864,10 +7052,10 @@
         <v>16</v>
       </c>
       <c r="D221" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E221" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F221" t="s">
         <v>722</v>
@@ -6879,10 +7067,14 @@
         <v>722</v>
       </c>
       <c r="I221" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="J221">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>9</v>
       </c>
@@ -6890,13 +7082,13 @@
         <v>10</v>
       </c>
       <c r="C222" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D222" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E222" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F222" t="s">
         <v>722</v>
@@ -6908,10 +7100,14 @@
         <v>722</v>
       </c>
       <c r="I222" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="J222">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -6922,10 +7118,10 @@
         <v>21</v>
       </c>
       <c r="D223" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E223" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F223" t="s">
         <v>722</v>
@@ -6937,10 +7133,14 @@
         <v>722</v>
       </c>
       <c r="I223" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="J223">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -6948,13 +7148,13 @@
         <v>10</v>
       </c>
       <c r="C224" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D224" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E224" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F224" t="s">
         <v>722</v>
@@ -6966,10 +7166,14 @@
         <v>722</v>
       </c>
       <c r="I224" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="J224">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -6980,25 +7184,29 @@
         <v>11</v>
       </c>
       <c r="D225" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E225" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F225" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G225" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H225" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I225" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="J225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>9</v>
       </c>
@@ -7006,28 +7214,32 @@
         <v>10</v>
       </c>
       <c r="C226" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D226" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E226" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F226" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G226" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H226" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="I226" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="J226">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -7038,10 +7250,10 @@
         <v>16</v>
       </c>
       <c r="D227" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E227" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F227" t="s">
         <v>722</v>
@@ -7055,8 +7267,12 @@
       <c r="I227" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J227">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>9</v>
       </c>
@@ -7064,13 +7280,13 @@
         <v>10</v>
       </c>
       <c r="C228" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D228" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E228" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F228" t="s">
         <v>722</v>
@@ -7084,8 +7300,12 @@
       <c r="I228" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J228">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>9</v>
       </c>
@@ -7096,10 +7316,10 @@
         <v>21</v>
       </c>
       <c r="D229" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E229" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F229" t="s">
         <v>722</v>
@@ -7113,8 +7333,12 @@
       <c r="I229" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J229">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>9</v>
       </c>
@@ -7122,13 +7346,13 @@
         <v>10</v>
       </c>
       <c r="C230" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D230" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E230" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F230" t="s">
         <v>722</v>
@@ -7142,8 +7366,12 @@
       <c r="I230" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J230">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -7154,10 +7382,10 @@
         <v>11</v>
       </c>
       <c r="D231" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E231" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F231" t="s">
         <v>722</v>
@@ -7171,8 +7399,12 @@
       <c r="I231" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J231">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -7180,13 +7412,13 @@
         <v>10</v>
       </c>
       <c r="C232" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D232" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E232" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F232" t="s">
         <v>722</v>
@@ -7200,8 +7432,12 @@
       <c r="I232" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J232">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -7212,10 +7448,10 @@
         <v>16</v>
       </c>
       <c r="D233" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E233" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F233" t="s">
         <v>722</v>
@@ -7229,8 +7465,12 @@
       <c r="I233" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J233">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -7238,13 +7478,13 @@
         <v>10</v>
       </c>
       <c r="C234" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D234" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E234" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F234" t="s">
         <v>722</v>
@@ -7258,8 +7498,12 @@
       <c r="I234" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J234">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -7270,25 +7514,29 @@
         <v>21</v>
       </c>
       <c r="D235" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E235" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F235" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G235" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H235" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I235" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="J235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>9</v>
       </c>
@@ -7296,28 +7544,32 @@
         <v>10</v>
       </c>
       <c r="C236" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D236" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E236" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F236" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G236" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H236" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="I236" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="J236">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>9</v>
       </c>
@@ -7328,10 +7580,10 @@
         <v>11</v>
       </c>
       <c r="D237" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E237" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F237" t="s">
         <v>722</v>
@@ -7345,8 +7597,12 @@
       <c r="I237" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J237">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>9</v>
       </c>
@@ -7354,13 +7610,13 @@
         <v>10</v>
       </c>
       <c r="C238" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D238" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E238" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F238" t="s">
         <v>722</v>
@@ -7374,8 +7630,12 @@
       <c r="I238" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J238">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>9</v>
       </c>
@@ -7386,10 +7646,10 @@
         <v>16</v>
       </c>
       <c r="D239" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E239" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F239" t="s">
         <v>722</v>
@@ -7398,13 +7658,17 @@
         <v>722</v>
       </c>
       <c r="H239" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I239" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+      <c r="J239">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>9</v>
       </c>
@@ -7412,13 +7676,13 @@
         <v>10</v>
       </c>
       <c r="C240" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D240" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E240" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F240" t="s">
         <v>722</v>
@@ -7427,13 +7691,17 @@
         <v>722</v>
       </c>
       <c r="H240" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="I240" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+      <c r="J240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>9</v>
       </c>
@@ -7444,10 +7712,10 @@
         <v>21</v>
       </c>
       <c r="D241" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E241" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F241" t="s">
         <v>722</v>
@@ -7456,13 +7724,17 @@
         <v>722</v>
       </c>
       <c r="H241" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="I241" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="J241">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -7470,13 +7742,13 @@
         <v>10</v>
       </c>
       <c r="C242" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D242" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E242" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F242" t="s">
         <v>722</v>
@@ -7490,8 +7762,12 @@
       <c r="I242" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J242">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -7502,10 +7778,10 @@
         <v>11</v>
       </c>
       <c r="D243" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E243" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F243" t="s">
         <v>722</v>
@@ -7519,8 +7795,12 @@
       <c r="I243" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J243">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>9</v>
       </c>
@@ -7528,13 +7808,13 @@
         <v>10</v>
       </c>
       <c r="C244" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D244" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E244" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F244" t="s">
         <v>722</v>
@@ -7546,10 +7826,14 @@
         <v>722</v>
       </c>
       <c r="I244" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="J244">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>9</v>
       </c>
@@ -7560,10 +7844,10 @@
         <v>16</v>
       </c>
       <c r="D245" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E245" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F245" t="s">
         <v>722</v>
@@ -7575,10 +7859,14 @@
         <v>722</v>
       </c>
       <c r="I245" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="J245">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>9</v>
       </c>
@@ -7586,13 +7874,13 @@
         <v>10</v>
       </c>
       <c r="C246" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D246" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E246" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F246" t="s">
         <v>722</v>
@@ -7606,8 +7894,12 @@
       <c r="I246" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J246">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>9</v>
       </c>
@@ -7618,10 +7910,10 @@
         <v>21</v>
       </c>
       <c r="D247" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E247" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F247" t="s">
         <v>722</v>
@@ -7635,8 +7927,12 @@
       <c r="I247" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J247">
+        <f t="shared" ref="J247:J265" si="1">INT(AND(F247="yes", G247="yes", H247="yes", I247="yes"))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>9</v>
       </c>
@@ -7644,13 +7940,13 @@
         <v>10</v>
       </c>
       <c r="C248" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D248" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E248" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F248" t="s">
         <v>722</v>
@@ -7664,8 +7960,12 @@
       <c r="I248" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J248">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>9</v>
       </c>
@@ -7676,10 +7976,10 @@
         <v>11</v>
       </c>
       <c r="D249" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E249" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F249" t="s">
         <v>722</v>
@@ -7693,8 +7993,12 @@
       <c r="I249" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J249">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>9</v>
       </c>
@@ -7702,28 +8006,32 @@
         <v>10</v>
       </c>
       <c r="C250" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D250" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E250" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F250" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G250" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H250" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I250" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="J250">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>9</v>
       </c>
@@ -7734,25 +8042,29 @@
         <v>16</v>
       </c>
       <c r="D251" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E251" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F251" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G251" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="H251" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="I251" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="J251">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -7760,13 +8072,13 @@
         <v>10</v>
       </c>
       <c r="C252" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D252" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E252" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F252" t="s">
         <v>722</v>
@@ -7775,13 +8087,17 @@
         <v>722</v>
       </c>
       <c r="H252" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="I252" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J252">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>9</v>
       </c>
@@ -7792,10 +8108,10 @@
         <v>21</v>
       </c>
       <c r="D253" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E253" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F253" t="s">
         <v>722</v>
@@ -7809,8 +8125,12 @@
       <c r="I253" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J253">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>9</v>
       </c>
@@ -7818,13 +8138,13 @@
         <v>10</v>
       </c>
       <c r="C254" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D254" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E254" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F254" t="s">
         <v>722</v>
@@ -7838,8 +8158,12 @@
       <c r="I254" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J254">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>9</v>
       </c>
@@ -7850,10 +8174,10 @@
         <v>11</v>
       </c>
       <c r="D255" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E255" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F255" t="s">
         <v>722</v>
@@ -7867,8 +8191,12 @@
       <c r="I255" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J255">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>9</v>
       </c>
@@ -7876,13 +8204,13 @@
         <v>10</v>
       </c>
       <c r="C256" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D256" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E256" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F256" t="s">
         <v>722</v>
@@ -7896,8 +8224,12 @@
       <c r="I256" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J256">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>9</v>
       </c>
@@ -7908,10 +8240,10 @@
         <v>16</v>
       </c>
       <c r="D257" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E257" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F257" t="s">
         <v>722</v>
@@ -7923,10 +8255,14 @@
         <v>722</v>
       </c>
       <c r="I257" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="J257">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -7934,28 +8270,32 @@
         <v>10</v>
       </c>
       <c r="C258" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D258" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E258" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F258" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G258" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H258" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I258" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="J258">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>9</v>
       </c>
@@ -7966,25 +8306,29 @@
         <v>21</v>
       </c>
       <c r="D259" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E259" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F259" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G259" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H259" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="I259" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+      <c r="J259">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>9</v>
       </c>
@@ -7992,28 +8336,32 @@
         <v>10</v>
       </c>
       <c r="C260" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D260" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E260" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F260" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G260" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H260" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="I260" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+      <c r="J260">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -8024,25 +8372,29 @@
         <v>11</v>
       </c>
       <c r="D261" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E261" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F261" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G261" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H261" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="I261" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+      <c r="J261">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>9</v>
       </c>
@@ -8050,28 +8402,32 @@
         <v>10</v>
       </c>
       <c r="C262" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D262" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E262" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F262" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G262" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H262" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="I262" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+      <c r="J262">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>9</v>
       </c>
@@ -8082,25 +8438,29 @@
         <v>16</v>
       </c>
       <c r="D263" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E263" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F263" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G263" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H263" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="I263" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+      <c r="J263">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>9</v>
       </c>
@@ -8108,28 +8468,32 @@
         <v>10</v>
       </c>
       <c r="C264" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D264" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E264" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F264" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G264" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H264" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="I264" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+      <c r="J264">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -8140,25 +8504,29 @@
         <v>21</v>
       </c>
       <c r="D265" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E265" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F265" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G265" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H265" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="I265" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+      <c r="J265">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>9</v>
       </c>
@@ -8166,28 +8534,16 @@
         <v>10</v>
       </c>
       <c r="C266" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D266" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E266" t="s">
-        <v>541</v>
-      </c>
-      <c r="F266" t="s">
-        <v>728</v>
-      </c>
-      <c r="G266" t="s">
-        <v>728</v>
-      </c>
-      <c r="H266" t="s">
-        <v>728</v>
-      </c>
-      <c r="I266" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>9</v>
       </c>
@@ -8198,13 +8554,13 @@
         <v>11</v>
       </c>
       <c r="D267" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E267" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -8212,16 +8568,16 @@
         <v>10</v>
       </c>
       <c r="C268" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D268" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E268" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>9</v>
       </c>
@@ -8232,13 +8588,13 @@
         <v>16</v>
       </c>
       <c r="D269" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E269" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>9</v>
       </c>
@@ -8246,16 +8602,16 @@
         <v>10</v>
       </c>
       <c r="C270" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D270" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E270" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>9</v>
       </c>
@@ -8266,13 +8622,13 @@
         <v>21</v>
       </c>
       <c r="D271" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E271" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>9</v>
       </c>
@@ -8280,16 +8636,16 @@
         <v>10</v>
       </c>
       <c r="C272" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D272" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E272" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>9</v>
       </c>
@@ -8300,13 +8656,13 @@
         <v>11</v>
       </c>
       <c r="D273" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E273" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>9</v>
       </c>
@@ -8314,16 +8670,16 @@
         <v>10</v>
       </c>
       <c r="C274" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D274" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E274" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -8334,13 +8690,13 @@
         <v>16</v>
       </c>
       <c r="D275" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E275" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -8348,16 +8704,16 @@
         <v>10</v>
       </c>
       <c r="C276" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D276" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E276" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>9</v>
       </c>
@@ -8368,13 +8724,13 @@
         <v>21</v>
       </c>
       <c r="D277" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E277" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>9</v>
       </c>
@@ -8382,16 +8738,16 @@
         <v>10</v>
       </c>
       <c r="C278" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D278" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E278" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>9</v>
       </c>
@@ -8402,13 +8758,13 @@
         <v>11</v>
       </c>
       <c r="D279" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E279" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>9</v>
       </c>
@@ -8416,16 +8772,16 @@
         <v>10</v>
       </c>
       <c r="C280" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D280" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E280" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>9</v>
       </c>
@@ -8436,13 +8792,13 @@
         <v>16</v>
       </c>
       <c r="D281" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E281" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>9</v>
       </c>
@@ -8450,16 +8806,16 @@
         <v>10</v>
       </c>
       <c r="C282" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D282" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E282" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>9</v>
       </c>
@@ -8470,13 +8826,13 @@
         <v>21</v>
       </c>
       <c r="D283" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E283" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>9</v>
       </c>
@@ -8484,16 +8840,16 @@
         <v>10</v>
       </c>
       <c r="C284" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D284" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E284" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>9</v>
       </c>
@@ -8504,13 +8860,13 @@
         <v>11</v>
       </c>
       <c r="D285" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E285" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>9</v>
       </c>
@@ -8518,16 +8874,16 @@
         <v>10</v>
       </c>
       <c r="C286" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D286" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E286" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>9</v>
       </c>
@@ -8538,13 +8894,13 @@
         <v>16</v>
       </c>
       <c r="D287" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E287" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -8552,16 +8908,16 @@
         <v>10</v>
       </c>
       <c r="C288" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D288" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E288" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -8572,13 +8928,13 @@
         <v>21</v>
       </c>
       <c r="D289" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E289" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -8586,16 +8942,16 @@
         <v>10</v>
       </c>
       <c r="C290" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D290" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E290" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -8606,13 +8962,13 @@
         <v>11</v>
       </c>
       <c r="D291" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E291" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>9</v>
       </c>
@@ -8620,16 +8976,16 @@
         <v>10</v>
       </c>
       <c r="C292" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D292" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E292" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>9</v>
       </c>
@@ -8640,13 +8996,13 @@
         <v>16</v>
       </c>
       <c r="D293" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E293" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>9</v>
       </c>
@@ -8654,16 +9010,16 @@
         <v>10</v>
       </c>
       <c r="C294" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D294" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E294" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>9</v>
       </c>
@@ -8674,13 +9030,13 @@
         <v>21</v>
       </c>
       <c r="D295" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E295" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>9</v>
       </c>
@@ -8688,16 +9044,16 @@
         <v>10</v>
       </c>
       <c r="C296" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D296" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E296" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>9</v>
       </c>
@@ -8708,13 +9064,13 @@
         <v>11</v>
       </c>
       <c r="D297" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E297" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>9</v>
       </c>
@@ -8722,16 +9078,16 @@
         <v>10</v>
       </c>
       <c r="C298" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D298" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E298" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>9</v>
       </c>
@@ -8742,13 +9098,13 @@
         <v>16</v>
       </c>
       <c r="D299" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E299" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>9</v>
       </c>
@@ -8756,16 +9112,16 @@
         <v>10</v>
       </c>
       <c r="C300" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D300" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E300" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>9</v>
       </c>
@@ -8776,13 +9132,13 @@
         <v>21</v>
       </c>
       <c r="D301" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E301" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>9</v>
       </c>
@@ -8790,16 +9146,16 @@
         <v>10</v>
       </c>
       <c r="C302" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D302" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E302" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>9</v>
       </c>
@@ -8810,13 +9166,13 @@
         <v>11</v>
       </c>
       <c r="D303" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E303" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>9</v>
       </c>
@@ -8824,16 +9180,16 @@
         <v>10</v>
       </c>
       <c r="C304" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D304" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E304" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>9</v>
       </c>
@@ -8844,13 +9200,13 @@
         <v>16</v>
       </c>
       <c r="D305" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E305" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>9</v>
       </c>
@@ -8858,16 +9214,16 @@
         <v>10</v>
       </c>
       <c r="C306" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D306" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E306" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>9</v>
       </c>
@@ -8878,13 +9234,13 @@
         <v>21</v>
       </c>
       <c r="D307" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E307" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -8892,16 +9248,16 @@
         <v>10</v>
       </c>
       <c r="C308" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D308" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E308" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>9</v>
       </c>
@@ -8912,13 +9268,13 @@
         <v>11</v>
       </c>
       <c r="D309" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E309" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>9</v>
       </c>
@@ -8926,16 +9282,16 @@
         <v>10</v>
       </c>
       <c r="C310" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D310" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E310" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>9</v>
       </c>
@@ -8946,13 +9302,13 @@
         <v>16</v>
       </c>
       <c r="D311" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E311" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>9</v>
       </c>
@@ -8960,16 +9316,16 @@
         <v>10</v>
       </c>
       <c r="C312" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D312" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E312" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>9</v>
       </c>
@@ -8980,13 +9336,13 @@
         <v>21</v>
       </c>
       <c r="D313" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E313" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>9</v>
       </c>
@@ -8994,16 +9350,16 @@
         <v>10</v>
       </c>
       <c r="C314" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D314" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E314" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>9</v>
       </c>
@@ -9014,13 +9370,13 @@
         <v>11</v>
       </c>
       <c r="D315" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E315" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>9</v>
       </c>
@@ -9028,16 +9384,16 @@
         <v>10</v>
       </c>
       <c r="C316" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D316" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E316" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>9</v>
       </c>
@@ -9048,13 +9404,13 @@
         <v>16</v>
       </c>
       <c r="D317" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E317" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>9</v>
       </c>
@@ -9062,16 +9418,16 @@
         <v>10</v>
       </c>
       <c r="C318" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D318" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E318" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>9</v>
       </c>
@@ -9082,13 +9438,13 @@
         <v>21</v>
       </c>
       <c r="D319" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E319" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -9096,16 +9452,16 @@
         <v>10</v>
       </c>
       <c r="C320" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D320" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E320" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>9</v>
       </c>
@@ -9116,13 +9472,13 @@
         <v>11</v>
       </c>
       <c r="D321" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E321" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>9</v>
       </c>
@@ -9130,16 +9486,16 @@
         <v>10</v>
       </c>
       <c r="C322" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D322" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E322" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -9150,13 +9506,13 @@
         <v>16</v>
       </c>
       <c r="D323" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E323" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>9</v>
       </c>
@@ -9164,16 +9520,16 @@
         <v>10</v>
       </c>
       <c r="C324" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D324" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E324" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>9</v>
       </c>
@@ -9184,13 +9540,13 @@
         <v>21</v>
       </c>
       <c r="D325" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E325" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>9</v>
       </c>
@@ -9198,16 +9554,16 @@
         <v>10</v>
       </c>
       <c r="C326" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D326" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E326" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>9</v>
       </c>
@@ -9218,13 +9574,13 @@
         <v>11</v>
       </c>
       <c r="D327" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E327" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>9</v>
       </c>
@@ -9232,16 +9588,16 @@
         <v>10</v>
       </c>
       <c r="C328" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D328" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E328" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -9252,13 +9608,13 @@
         <v>16</v>
       </c>
       <c r="D329" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E329" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>9</v>
       </c>
@@ -9266,16 +9622,16 @@
         <v>10</v>
       </c>
       <c r="C330" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D330" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E330" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>9</v>
       </c>
@@ -9286,13 +9642,13 @@
         <v>21</v>
       </c>
       <c r="D331" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E331" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>9</v>
       </c>
@@ -9300,16 +9656,16 @@
         <v>10</v>
       </c>
       <c r="C332" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D332" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E332" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>9</v>
       </c>
@@ -9320,13 +9676,13 @@
         <v>11</v>
       </c>
       <c r="D333" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E333" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>9</v>
       </c>
@@ -9334,16 +9690,16 @@
         <v>10</v>
       </c>
       <c r="C334" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D334" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E334" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>9</v>
       </c>
@@ -9354,13 +9710,13 @@
         <v>16</v>
       </c>
       <c r="D335" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E335" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>9</v>
       </c>
@@ -9368,16 +9724,16 @@
         <v>10</v>
       </c>
       <c r="C336" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D336" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E336" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>9</v>
       </c>
@@ -9388,13 +9744,13 @@
         <v>21</v>
       </c>
       <c r="D337" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E337" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>9</v>
       </c>
@@ -9402,16 +9758,16 @@
         <v>10</v>
       </c>
       <c r="C338" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D338" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E338" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -9422,13 +9778,13 @@
         <v>11</v>
       </c>
       <c r="D339" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E339" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>9</v>
       </c>
@@ -9436,16 +9792,16 @@
         <v>10</v>
       </c>
       <c r="C340" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D340" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E340" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>9</v>
       </c>
@@ -9456,13 +9812,13 @@
         <v>16</v>
       </c>
       <c r="D341" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E341" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>9</v>
       </c>
@@ -9470,16 +9826,16 @@
         <v>10</v>
       </c>
       <c r="C342" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D342" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E342" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>9</v>
       </c>
@@ -9490,13 +9846,13 @@
         <v>21</v>
       </c>
       <c r="D343" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E343" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>9</v>
       </c>
@@ -9504,16 +9860,16 @@
         <v>10</v>
       </c>
       <c r="C344" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D344" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E344" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>9</v>
       </c>
@@ -9524,13 +9880,13 @@
         <v>11</v>
       </c>
       <c r="D345" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E345" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>9</v>
       </c>
@@ -9538,16 +9894,16 @@
         <v>10</v>
       </c>
       <c r="C346" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D346" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E346" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>9</v>
       </c>
@@ -9558,13 +9914,13 @@
         <v>16</v>
       </c>
       <c r="D347" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E347" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>9</v>
       </c>
@@ -9572,16 +9928,16 @@
         <v>10</v>
       </c>
       <c r="C348" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D348" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E348" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>9</v>
       </c>
@@ -9592,13 +9948,13 @@
         <v>21</v>
       </c>
       <c r="D349" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E349" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -9606,16 +9962,16 @@
         <v>10</v>
       </c>
       <c r="C350" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D350" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E350" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>9</v>
       </c>
@@ -9626,13 +9982,13 @@
         <v>11</v>
       </c>
       <c r="D351" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E351" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -9640,16 +9996,16 @@
         <v>10</v>
       </c>
       <c r="C352" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D352" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E352" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>9</v>
       </c>
@@ -9660,13 +10016,13 @@
         <v>16</v>
       </c>
       <c r="D353" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E353" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>9</v>
       </c>
@@ -9674,16 +10030,16 @@
         <v>10</v>
       </c>
       <c r="C354" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D354" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E354" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>9</v>
       </c>
@@ -9694,26 +10050,9 @@
         <v>21</v>
       </c>
       <c r="D355" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E355" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>9</v>
-      </c>
-      <c r="B356" t="s">
-        <v>10</v>
-      </c>
-      <c r="C356" t="s">
-        <v>21</v>
-      </c>
-      <c r="D356" t="s">
-        <v>720</v>
-      </c>
-      <c r="E356" t="s">
         <v>721</v>
       </c>
     </row>
